--- a/Config/Financial_Config.xlsx
+++ b/Config/Financial_Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Srilanka\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Srilanka\MNS-Srilanaka\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B0598A-F034-49FB-9C77-41DCDCD0F21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE7A020-B26B-44B1-B353-6C83BE9644B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$225</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="365">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1116,70 +1116,13 @@
     <t>Investment properties</t>
   </si>
   <si>
-    <t>Financial_assets_group1</t>
-  </si>
-  <si>
-    <t>Financial_assets_group2</t>
-  </si>
-  <si>
-    <t>Financial_assets_group3</t>
-  </si>
-  <si>
-    <t>Financial_liabilities_group1</t>
-  </si>
-  <si>
-    <t>Financial_liabilities_group2</t>
-  </si>
-  <si>
-    <t>Financial_liabilities_group3</t>
-  </si>
-  <si>
     <t>operating_profit+other_income+Revenue_from_Service+Other_Operating_Revenue+Subsidy_Income+Financial_Income+Gains_Losses_Allocated_Subsidiaries_Associates_Joint_Ventures+Income_Loss_from_Discontinued_Operations+Group_Contribution_Received+Non_Operating_Income-depreciation-selling_expenses-administration_costs-Advertising_expense-Services-Auditors_Fee-Management_Expenses-Legal_Professional_Charges-Other_General_Expense-Repair_of_Machinery-depreciation-Personal_costs-Group_Contribution_Paid- Suppliers_And_External_Services-Impairment_Of_Investments_Not_Depreciable_Amortizable</t>
   </si>
   <si>
-    <t>Financial_assets_group4</t>
-  </si>
-  <si>
-    <t>Financial_assets_group5</t>
-  </si>
-  <si>
-    <t>Financial_assets_group6</t>
-  </si>
-  <si>
-    <t>Financial_liabilities_group4</t>
-  </si>
-  <si>
-    <t>Financial_liabilities_group5</t>
-  </si>
-  <si>
-    <t>Financial_liabilities_group6</t>
-  </si>
-  <si>
-    <t>Financial_liabilities_group7</t>
-  </si>
-  <si>
-    <t>Financial_liabilities_group8</t>
-  </si>
-  <si>
-    <t>Financial_Profit_and_Loss_group1</t>
-  </si>
-  <si>
-    <t>Financial_Profit_and_Loss_group2</t>
-  </si>
-  <si>
-    <t>Financial_Profit_and_Loss_group3</t>
-  </si>
-  <si>
-    <t>Financial_Profit_and_Loss_group4</t>
-  </si>
-  <si>
-    <t>Financial_Profit_and_Loss_group5</t>
-  </si>
-  <si>
-    <t>Financial_Profit_and_Loss_group6</t>
-  </si>
-  <si>
-    <t>Financial_Profit_and_Loss_group7</t>
+    <t>Profit_and_Loss</t>
+  </si>
+  <si>
+    <t>Financial</t>
   </si>
 </sst>
 </file>
@@ -1605,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1679,7 @@
         <v>297</v>
       </c>
       <c r="G8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1756,7 +1699,7 @@
         <v>297</v>
       </c>
       <c r="G9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1776,7 +1719,7 @@
         <v>297</v>
       </c>
       <c r="G10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1796,7 +1739,7 @@
         <v>297</v>
       </c>
       <c r="G11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1816,7 +1759,7 @@
         <v>297</v>
       </c>
       <c r="G12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1836,7 +1779,7 @@
         <v>297</v>
       </c>
       <c r="G13" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1856,7 +1799,7 @@
         <v>297</v>
       </c>
       <c r="G14" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1876,7 +1819,7 @@
         <v>297</v>
       </c>
       <c r="G15" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,7 +1839,7 @@
         <v>297</v>
       </c>
       <c r="G16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1916,7 +1859,7 @@
         <v>297</v>
       </c>
       <c r="G17" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1936,7 +1879,7 @@
         <v>297</v>
       </c>
       <c r="G18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1956,7 +1899,7 @@
         <v>297</v>
       </c>
       <c r="G19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1976,7 +1919,7 @@
         <v>297</v>
       </c>
       <c r="G20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1996,7 +1939,7 @@
         <v>297</v>
       </c>
       <c r="G21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2016,7 +1959,7 @@
         <v>297</v>
       </c>
       <c r="G22" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2036,7 +1979,7 @@
         <v>297</v>
       </c>
       <c r="G23" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2056,7 +1999,7 @@
         <v>297</v>
       </c>
       <c r="G24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2076,7 +2019,7 @@
         <v>297</v>
       </c>
       <c r="G25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2096,7 +2039,7 @@
         <v>297</v>
       </c>
       <c r="G26" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2116,7 +2059,7 @@
         <v>297</v>
       </c>
       <c r="G27" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2333,7 +2276,7 @@
         <v>297</v>
       </c>
       <c r="G38" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2353,7 +2296,7 @@
         <v>297</v>
       </c>
       <c r="G39" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2373,7 +2316,7 @@
         <v>297</v>
       </c>
       <c r="G40" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2393,7 +2336,7 @@
         <v>297</v>
       </c>
       <c r="G41" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2413,7 +2356,7 @@
         <v>297</v>
       </c>
       <c r="G42" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2433,7 +2376,7 @@
         <v>297</v>
       </c>
       <c r="G43" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2453,7 +2396,7 @@
         <v>297</v>
       </c>
       <c r="G44" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2473,7 +2416,7 @@
         <v>297</v>
       </c>
       <c r="G45" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2493,7 +2436,7 @@
         <v>297</v>
       </c>
       <c r="G46" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2513,7 +2456,7 @@
         <v>297</v>
       </c>
       <c r="G47" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2533,7 +2476,7 @@
         <v>297</v>
       </c>
       <c r="G48" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2553,7 +2496,7 @@
         <v>297</v>
       </c>
       <c r="G49" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2573,7 +2516,7 @@
         <v>297</v>
       </c>
       <c r="G50" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2593,7 +2536,7 @@
         <v>297</v>
       </c>
       <c r="G51" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2613,7 +2556,7 @@
         <v>297</v>
       </c>
       <c r="G52" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2633,7 +2576,7 @@
         <v>297</v>
       </c>
       <c r="G53" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2653,7 +2596,7 @@
         <v>297</v>
       </c>
       <c r="G54" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2673,7 +2616,7 @@
         <v>297</v>
       </c>
       <c r="G55" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2693,7 +2636,7 @@
         <v>297</v>
       </c>
       <c r="G56" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2713,7 +2656,7 @@
         <v>297</v>
       </c>
       <c r="G57" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2733,7 +2676,7 @@
         <v>297</v>
       </c>
       <c r="G58" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2753,7 +2696,7 @@
         <v>297</v>
       </c>
       <c r="G59" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2773,7 +2716,7 @@
         <v>297</v>
       </c>
       <c r="G60" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2793,7 +2736,7 @@
         <v>297</v>
       </c>
       <c r="G61" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2813,7 +2756,7 @@
         <v>297</v>
       </c>
       <c r="G62" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2833,7 +2776,7 @@
         <v>297</v>
       </c>
       <c r="G63" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2853,7 +2796,7 @@
         <v>297</v>
       </c>
       <c r="G64" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2873,7 +2816,7 @@
         <v>297</v>
       </c>
       <c r="G65" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2893,7 +2836,7 @@
         <v>297</v>
       </c>
       <c r="G66" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2925,7 +2868,7 @@
         <v>298</v>
       </c>
       <c r="G69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2945,7 +2888,7 @@
         <v>298</v>
       </c>
       <c r="G70" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2965,7 +2908,7 @@
         <v>298</v>
       </c>
       <c r="G71" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2985,7 +2928,7 @@
         <v>298</v>
       </c>
       <c r="G72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3005,7 +2948,7 @@
         <v>298</v>
       </c>
       <c r="G73" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3025,7 +2968,7 @@
         <v>298</v>
       </c>
       <c r="G74" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3045,7 +2988,7 @@
         <v>298</v>
       </c>
       <c r="G75" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3065,7 +3008,7 @@
         <v>298</v>
       </c>
       <c r="G76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3085,7 +3028,7 @@
         <v>298</v>
       </c>
       <c r="G77" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3105,7 +3048,7 @@
         <v>298</v>
       </c>
       <c r="G78" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -3125,7 +3068,7 @@
         <v>298</v>
       </c>
       <c r="G79" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,7 +3088,7 @@
         <v>298</v>
       </c>
       <c r="G80" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3165,7 +3108,7 @@
         <v>298</v>
       </c>
       <c r="G81" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3185,7 +3128,7 @@
         <v>298</v>
       </c>
       <c r="G82" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3205,7 +3148,7 @@
         <v>298</v>
       </c>
       <c r="G83" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3225,7 +3168,7 @@
         <v>298</v>
       </c>
       <c r="G84" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3245,7 +3188,7 @@
         <v>298</v>
       </c>
       <c r="G85" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3265,7 +3208,7 @@
         <v>298</v>
       </c>
       <c r="G86" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3285,7 +3228,7 @@
         <v>298</v>
       </c>
       <c r="G87" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3305,7 +3248,7 @@
         <v>298</v>
       </c>
       <c r="G88" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3325,7 +3268,7 @@
         <v>298</v>
       </c>
       <c r="G89" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3345,7 +3288,7 @@
         <v>298</v>
       </c>
       <c r="G90" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3365,7 +3308,7 @@
         <v>298</v>
       </c>
       <c r="G91" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3385,7 +3328,7 @@
         <v>298</v>
       </c>
       <c r="G92" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3405,7 +3348,7 @@
         <v>298</v>
       </c>
       <c r="G93" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3425,7 +3368,7 @@
         <v>298</v>
       </c>
       <c r="G94" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3445,7 +3388,7 @@
         <v>298</v>
       </c>
       <c r="G95" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3465,7 +3408,7 @@
         <v>298</v>
       </c>
       <c r="G96" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3485,7 +3428,7 @@
         <v>298</v>
       </c>
       <c r="G97" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -3505,7 +3448,7 @@
         <v>298</v>
       </c>
       <c r="G98" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3525,7 +3468,7 @@
         <v>298</v>
       </c>
       <c r="G99" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3545,7 +3488,7 @@
         <v>298</v>
       </c>
       <c r="G100" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3565,7 +3508,7 @@
         <v>298</v>
       </c>
       <c r="G101" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3585,7 +3528,7 @@
         <v>298</v>
       </c>
       <c r="G102" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3605,7 +3548,7 @@
         <v>298</v>
       </c>
       <c r="G103" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3625,7 +3568,7 @@
         <v>298</v>
       </c>
       <c r="G104" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3645,7 +3588,7 @@
         <v>298</v>
       </c>
       <c r="G105" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3665,7 +3608,7 @@
         <v>298</v>
       </c>
       <c r="G106" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3685,7 +3628,7 @@
         <v>298</v>
       </c>
       <c r="G107" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3705,7 +3648,7 @@
         <v>298</v>
       </c>
       <c r="G108" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3725,7 +3668,7 @@
         <v>298</v>
       </c>
       <c r="G109" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3745,7 +3688,7 @@
         <v>298</v>
       </c>
       <c r="G110" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3765,7 +3708,7 @@
         <v>298</v>
       </c>
       <c r="G111" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3785,7 +3728,7 @@
         <v>298</v>
       </c>
       <c r="G112" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3805,7 +3748,7 @@
         <v>298</v>
       </c>
       <c r="G113" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3825,7 +3768,7 @@
         <v>298</v>
       </c>
       <c r="G114" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3845,7 +3788,7 @@
         <v>298</v>
       </c>
       <c r="G115" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3865,7 +3808,7 @@
         <v>298</v>
       </c>
       <c r="G116" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3885,7 +3828,7 @@
         <v>298</v>
       </c>
       <c r="G117" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3905,7 +3848,7 @@
         <v>298</v>
       </c>
       <c r="G118" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3925,7 +3868,7 @@
         <v>298</v>
       </c>
       <c r="G119" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -3945,7 +3888,7 @@
         <v>298</v>
       </c>
       <c r="G120" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3965,7 +3908,7 @@
         <v>298</v>
       </c>
       <c r="G121" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3985,7 +3928,7 @@
         <v>298</v>
       </c>
       <c r="G122" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -4005,7 +3948,7 @@
         <v>298</v>
       </c>
       <c r="G123" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4025,7 +3968,7 @@
         <v>298</v>
       </c>
       <c r="G124" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4045,7 +3988,7 @@
         <v>298</v>
       </c>
       <c r="G125" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4065,7 +4008,7 @@
         <v>298</v>
       </c>
       <c r="G126" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4085,7 +4028,7 @@
         <v>298</v>
       </c>
       <c r="G127" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4105,7 +4048,7 @@
         <v>298</v>
       </c>
       <c r="G128" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4125,7 +4068,7 @@
         <v>298</v>
       </c>
       <c r="G129" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -4145,7 +4088,7 @@
         <v>298</v>
       </c>
       <c r="G130" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4165,7 +4108,7 @@
         <v>298</v>
       </c>
       <c r="G131" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4185,7 +4128,7 @@
         <v>298</v>
       </c>
       <c r="G132" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4205,7 +4148,7 @@
         <v>298</v>
       </c>
       <c r="G133" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4235,7 +4178,7 @@
         <v>299</v>
       </c>
       <c r="G136" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -4253,7 +4196,7 @@
         <v>299</v>
       </c>
       <c r="G137" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4271,7 +4214,7 @@
         <v>299</v>
       </c>
       <c r="G138" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4289,7 +4232,7 @@
         <v>299</v>
       </c>
       <c r="G139" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -4307,7 +4250,7 @@
         <v>299</v>
       </c>
       <c r="G140" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4325,7 +4268,7 @@
         <v>299</v>
       </c>
       <c r="G141" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4343,7 +4286,7 @@
         <v>299</v>
       </c>
       <c r="G142" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4361,7 +4304,7 @@
         <v>299</v>
       </c>
       <c r="G143" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -4381,7 +4324,7 @@
         <v>299</v>
       </c>
       <c r="G144" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -4401,7 +4344,7 @@
         <v>299</v>
       </c>
       <c r="G145" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="135" x14ac:dyDescent="0.25">
@@ -4421,7 +4364,7 @@
         <v>299</v>
       </c>
       <c r="G146" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -4441,7 +4384,7 @@
         <v>299</v>
       </c>
       <c r="G147" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4483,7 +4426,7 @@
         <v>300</v>
       </c>
       <c r="G151" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4503,7 +4446,7 @@
         <v>300</v>
       </c>
       <c r="G152" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4523,7 +4466,7 @@
         <v>300</v>
       </c>
       <c r="G153" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4543,7 +4486,7 @@
         <v>300</v>
       </c>
       <c r="G154" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4563,7 +4506,7 @@
         <v>300</v>
       </c>
       <c r="G155" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4583,7 +4526,7 @@
         <v>300</v>
       </c>
       <c r="G156" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4603,7 +4546,7 @@
         <v>300</v>
       </c>
       <c r="G157" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4623,7 +4566,7 @@
         <v>300</v>
       </c>
       <c r="G158" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4643,7 +4586,7 @@
         <v>300</v>
       </c>
       <c r="G159" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -4663,7 +4606,7 @@
         <v>300</v>
       </c>
       <c r="G160" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4683,7 +4626,7 @@
         <v>300</v>
       </c>
       <c r="G161" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4703,7 +4646,7 @@
         <v>300</v>
       </c>
       <c r="G162" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4723,7 +4666,7 @@
         <v>300</v>
       </c>
       <c r="G163" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4743,7 +4686,7 @@
         <v>300</v>
       </c>
       <c r="G164" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4763,7 +4706,7 @@
         <v>300</v>
       </c>
       <c r="G165" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4783,7 +4726,7 @@
         <v>300</v>
       </c>
       <c r="G166" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4803,7 +4746,7 @@
         <v>300</v>
       </c>
       <c r="G167" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4823,7 +4766,7 @@
         <v>300</v>
       </c>
       <c r="G168" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4843,7 +4786,7 @@
         <v>300</v>
       </c>
       <c r="G169" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4863,7 +4806,7 @@
         <v>300</v>
       </c>
       <c r="G170" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4883,7 +4826,7 @@
         <v>300</v>
       </c>
       <c r="G171" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4903,7 +4846,7 @@
         <v>300</v>
       </c>
       <c r="G172" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -4923,7 +4866,7 @@
         <v>300</v>
       </c>
       <c r="G173" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -4943,7 +4886,7 @@
         <v>300</v>
       </c>
       <c r="G174" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -4963,7 +4906,7 @@
         <v>300</v>
       </c>
       <c r="G175" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4983,7 +4926,7 @@
         <v>300</v>
       </c>
       <c r="G176" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5003,7 +4946,7 @@
         <v>300</v>
       </c>
       <c r="G177" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5023,7 +4966,7 @@
         <v>300</v>
       </c>
       <c r="G178" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5043,7 +4986,7 @@
         <v>300</v>
       </c>
       <c r="G179" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -5063,7 +5006,7 @@
         <v>300</v>
       </c>
       <c r="G180" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5083,7 +5026,7 @@
         <v>300</v>
       </c>
       <c r="G181" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -5103,7 +5046,7 @@
         <v>300</v>
       </c>
       <c r="G182" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -5123,7 +5066,7 @@
         <v>300</v>
       </c>
       <c r="G183" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -5143,7 +5086,7 @@
         <v>300</v>
       </c>
       <c r="G184" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -5163,7 +5106,7 @@
         <v>300</v>
       </c>
       <c r="G185" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5183,7 +5126,7 @@
         <v>300</v>
       </c>
       <c r="G186" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -5203,7 +5146,7 @@
         <v>300</v>
       </c>
       <c r="G187" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -5223,7 +5166,7 @@
         <v>300</v>
       </c>
       <c r="G188" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -5243,7 +5186,7 @@
         <v>300</v>
       </c>
       <c r="G189" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5263,7 +5206,7 @@
         <v>300</v>
       </c>
       <c r="G190" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5283,7 +5226,7 @@
         <v>300</v>
       </c>
       <c r="G191" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5303,7 +5246,7 @@
         <v>300</v>
       </c>
       <c r="G192" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5323,7 +5266,7 @@
         <v>300</v>
       </c>
       <c r="G193" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5343,7 +5286,7 @@
         <v>300</v>
       </c>
       <c r="G194" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5363,7 +5306,7 @@
         <v>300</v>
       </c>
       <c r="G195" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5383,7 +5326,7 @@
         <v>300</v>
       </c>
       <c r="G196" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5403,7 +5346,7 @@
         <v>300</v>
       </c>
       <c r="G197" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5423,7 +5366,7 @@
         <v>300</v>
       </c>
       <c r="G198" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5443,7 +5386,7 @@
         <v>300</v>
       </c>
       <c r="G199" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5463,7 +5406,7 @@
         <v>300</v>
       </c>
       <c r="G200" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="195" x14ac:dyDescent="0.25">
@@ -5474,7 +5417,7 @@
         <v>164</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D201" t="s">
         <v>162</v>
@@ -5483,7 +5426,7 @@
         <v>300</v>
       </c>
       <c r="G201" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -5503,7 +5446,7 @@
         <v>300</v>
       </c>
       <c r="G202" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -5523,7 +5466,7 @@
         <v>300</v>
       </c>
       <c r="G203" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -5543,7 +5486,7 @@
         <v>300</v>
       </c>
       <c r="G204" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -5563,7 +5506,7 @@
         <v>300</v>
       </c>
       <c r="G205" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5583,7 +5526,7 @@
         <v>300</v>
       </c>
       <c r="G206" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -5603,7 +5546,7 @@
         <v>300</v>
       </c>
       <c r="G207" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5623,7 +5566,7 @@
         <v>300</v>
       </c>
       <c r="G208" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5643,7 +5586,7 @@
         <v>300</v>
       </c>
       <c r="G209" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -5663,7 +5606,7 @@
         <v>300</v>
       </c>
       <c r="G210" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -5683,7 +5626,7 @@
         <v>300</v>
       </c>
       <c r="G211" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5703,7 +5646,7 @@
         <v>300</v>
       </c>
       <c r="G212" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -5723,7 +5666,7 @@
         <v>300</v>
       </c>
       <c r="G213" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -5743,7 +5686,7 @@
         <v>300</v>
       </c>
       <c r="G214" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -5763,7 +5706,7 @@
         <v>300</v>
       </c>
       <c r="G215" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -5783,7 +5726,7 @@
         <v>300</v>
       </c>
       <c r="G216" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5803,7 +5746,7 @@
         <v>300</v>
       </c>
       <c r="G217" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5823,7 +5766,7 @@
         <v>300</v>
       </c>
       <c r="G218" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5841,7 +5784,7 @@
         <v>300</v>
       </c>
       <c r="G219" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5861,7 +5804,7 @@
         <v>300</v>
       </c>
       <c r="G220" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="345" x14ac:dyDescent="0.25">
@@ -5881,7 +5824,7 @@
         <v>300</v>
       </c>
       <c r="G221" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -5915,7 +5858,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A225" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="G1:G225" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Config/Financial_Config.xlsx
+++ b/Config/Financial_Config.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Srilanka\MNS-Srilanaka\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE7A020-B26B-44B1-B353-6C83BE9644B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67484A66-6BA6-4860-BB08-E6C3D018B5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$231</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="377">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1123,6 +1123,42 @@
   </si>
   <si>
     <t>Financial</t>
+  </si>
+  <si>
+    <t>Investment_in_unit_trust</t>
+  </si>
+  <si>
+    <t>Short Term Investments</t>
+  </si>
+  <si>
+    <t>Short_Term_Investments</t>
+  </si>
+  <si>
+    <t>Investment_in_unit_trust+Short_Term_Investments</t>
+  </si>
+  <si>
+    <t>Trade_Receivables</t>
+  </si>
+  <si>
+    <t>Receivable From Suppliers</t>
+  </si>
+  <si>
+    <t>Receivable_From_Suppliers</t>
+  </si>
+  <si>
+    <t>Trade_Receivables+Receivable_From_Suppliers</t>
+  </si>
+  <si>
+    <t>Trade_Payables</t>
+  </si>
+  <si>
+    <t>Trade Creditors</t>
+  </si>
+  <si>
+    <t>Trade_Creditors</t>
+  </si>
+  <si>
+    <t>Trade_Payables+Trade_Creditors</t>
   </si>
 </sst>
 </file>
@@ -1546,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G225"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G136" sqref="G136"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,7 +2297,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>365</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>163</v>
@@ -2281,13 +2317,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>189</v>
+        <v>367</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>189</v>
+        <v>366</v>
       </c>
       <c r="D39" t="s">
         <v>162</v>
@@ -2301,13 +2337,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>190</v>
+        <v>368</v>
       </c>
       <c r="D40" t="s">
         <v>162</v>
@@ -2321,13 +2357,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D41" t="s">
         <v>162</v>
@@ -2341,13 +2377,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="D42" t="s">
         <v>162</v>
@@ -2361,13 +2397,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="D43" t="s">
         <v>162</v>
@@ -2381,13 +2417,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>193</v>
+        <v>369</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
         <v>162</v>
@@ -2399,15 +2435,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>195</v>
+        <v>371</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>194</v>
+        <v>370</v>
       </c>
       <c r="D45" t="s">
         <v>162</v>
@@ -2419,15 +2455,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>196</v>
+        <v>372</v>
       </c>
       <c r="D46" t="s">
         <v>162</v>
@@ -2439,15 +2475,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
         <v>162</v>
@@ -2461,13 +2497,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s">
         <v>162</v>
@@ -2479,15 +2515,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
         <v>162</v>
@@ -2501,33 +2537,33 @@
     </row>
     <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" t="s">
+        <v>297</v>
+      </c>
+      <c r="G50" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" t="s">
-        <v>162</v>
-      </c>
-      <c r="E50" t="s">
-        <v>297</v>
-      </c>
-      <c r="G50" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="D51" t="s">
         <v>162</v>
@@ -2541,13 +2577,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="D52" t="s">
         <v>162</v>
@@ -2561,13 +2597,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="D53" t="s">
         <v>162</v>
@@ -2579,15 +2615,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
         <v>162</v>
@@ -2601,13 +2637,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
         <v>162</v>
@@ -2621,13 +2657,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -2641,13 +2677,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
         <v>162</v>
@@ -2661,13 +2697,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>162</v>
@@ -2681,7 +2717,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>163</v>
@@ -2701,13 +2737,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="D60" t="s">
         <v>162</v>
@@ -2721,13 +2757,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D61" t="s">
         <v>162</v>
@@ -2741,13 +2777,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="D62" t="s">
         <v>162</v>
@@ -2761,13 +2797,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
         <v>162</v>
@@ -2779,15 +2815,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>214</v>
+        <v>51</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
         <v>162</v>
@@ -2799,15 +2835,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
         <v>162</v>
@@ -2821,13 +2857,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="D66" t="s">
         <v>162</v>
@@ -2840,32 +2876,60 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" t="s">
+        <v>297</v>
+      </c>
+      <c r="G67" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" t="s">
+        <v>297</v>
+      </c>
+      <c r="G68" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
         <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G69" t="s">
         <v>364</v>
@@ -2873,73 +2937,45 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c r="D70" t="s">
         <v>162</v>
       </c>
       <c r="E70" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G70" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D71" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" t="s">
-        <v>298</v>
-      </c>
-      <c r="G71" t="s">
-        <v>364</v>
-      </c>
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D72" t="s">
-        <v>162</v>
-      </c>
-      <c r="E72" t="s">
-        <v>298</v>
-      </c>
-      <c r="G72" t="s">
-        <v>364</v>
-      </c>
+      <c r="A72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="8"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>222</v>
+        <v>57</v>
       </c>
       <c r="D73" t="s">
         <v>162</v>
@@ -2953,13 +2989,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D74" t="s">
         <v>162</v>
@@ -2971,15 +3007,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D75" t="s">
         <v>162</v>
@@ -2993,13 +3029,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D76" t="s">
         <v>162</v>
@@ -3013,13 +3049,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D77" t="s">
         <v>162</v>
@@ -3033,13 +3069,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D78" t="s">
         <v>162</v>
@@ -3051,15 +3087,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="D79" t="s">
         <v>162</v>
@@ -3073,13 +3109,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="D80" t="s">
         <v>162</v>
@@ -3091,15 +3127,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="D81" t="s">
         <v>162</v>
@@ -3111,15 +3147,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="D82" t="s">
         <v>162</v>
@@ -3131,15 +3167,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>13</v>
+        <v>295</v>
       </c>
       <c r="D83" t="s">
         <v>162</v>
@@ -3153,7 +3189,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>163</v>
@@ -3171,15 +3207,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
         <v>162</v>
@@ -3191,15 +3227,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>234</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
         <v>162</v>
@@ -3211,15 +3247,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
         <v>162</v>
@@ -3233,13 +3269,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
         <v>162</v>
@@ -3251,15 +3287,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D89" t="s">
         <v>162</v>
@@ -3273,13 +3309,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D90" t="s">
         <v>162</v>
@@ -3293,13 +3329,13 @@
     </row>
     <row r="91" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="D91" t="s">
         <v>162</v>
@@ -3313,13 +3349,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D92" t="s">
         <v>162</v>
@@ -3331,15 +3367,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>289</v>
+        <v>64</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D93" t="s">
         <v>162</v>
@@ -3353,13 +3389,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>246</v>
+        <v>65</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D94" t="s">
         <v>162</v>
@@ -3371,15 +3407,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
         <v>162</v>
@@ -3391,15 +3427,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D96" t="s">
         <v>162</v>
@@ -3413,13 +3449,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D97" t="s">
         <v>162</v>
@@ -3431,15 +3467,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D98" t="s">
         <v>162</v>
@@ -3453,13 +3489,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>68</v>
+        <v>248</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="D99" t="s">
         <v>162</v>
@@ -3473,13 +3509,13 @@
     </row>
     <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D100" t="s">
         <v>162</v>
@@ -3491,15 +3527,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D101" t="s">
         <v>162</v>
@@ -3511,15 +3547,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D102" t="s">
         <v>162</v>
@@ -3533,13 +3569,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
         <v>162</v>
@@ -3551,15 +3587,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>360</v>
+        <v>254</v>
       </c>
       <c r="D104" t="s">
         <v>162</v>
@@ -3571,15 +3607,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>71</v>
+        <v>236</v>
       </c>
       <c r="D105" t="s">
         <v>162</v>
@@ -3593,13 +3629,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>72</v>
+        <v>257</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="D106" t="s">
         <v>162</v>
@@ -3613,13 +3649,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="D107" t="s">
         <v>162</v>
@@ -3631,15 +3667,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="D108" t="s">
         <v>162</v>
@@ -3651,15 +3687,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>261</v>
+        <v>373</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="D109" t="s">
         <v>162</v>
@@ -3673,13 +3709,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>263</v>
+        <v>375</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>262</v>
+        <v>374</v>
       </c>
       <c r="D110" t="s">
         <v>162</v>
@@ -3691,15 +3727,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
       <c r="D111" t="s">
         <v>162</v>
@@ -3713,7 +3749,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>163</v>
@@ -3733,7 +3769,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>163</v>
@@ -3753,13 +3789,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="D114" t="s">
         <v>162</v>
@@ -3771,15 +3807,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="D115" t="s">
         <v>162</v>
@@ -3793,13 +3829,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D116" t="s">
         <v>162</v>
@@ -3811,15 +3847,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D117" t="s">
         <v>162</v>
@@ -3833,13 +3869,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="D118" t="s">
         <v>162</v>
@@ -3853,13 +3889,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>271</v>
+        <v>13</v>
       </c>
       <c r="D119" t="s">
         <v>162</v>
@@ -3871,15 +3907,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>273</v>
+        <v>13</v>
       </c>
       <c r="D120" t="s">
         <v>162</v>
@@ -3893,7 +3929,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>163</v>
@@ -3913,13 +3949,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="D122" t="s">
         <v>162</v>
@@ -3933,13 +3969,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="D123" t="s">
         <v>162</v>
@@ -3953,13 +3989,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D124" t="s">
         <v>162</v>
@@ -3971,15 +4007,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D125" t="s">
         <v>162</v>
@@ -3991,15 +4027,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D126" t="s">
         <v>162</v>
@@ -4013,13 +4049,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>242</v>
+        <v>13</v>
       </c>
       <c r="D127" t="s">
         <v>162</v>
@@ -4033,13 +4069,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>280</v>
+        <v>13</v>
       </c>
       <c r="D128" t="s">
         <v>162</v>
@@ -4053,13 +4089,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>282</v>
+        <v>13</v>
       </c>
       <c r="D129" t="s">
         <v>162</v>
@@ -4073,13 +4109,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D130" t="s">
         <v>162</v>
@@ -4091,15 +4127,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>83</v>
+        <v>277</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D131" t="s">
         <v>162</v>
@@ -4113,13 +4149,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>13</v>
+        <v>278</v>
       </c>
       <c r="D132" t="s">
         <v>162</v>
@@ -4133,13 +4169,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="D133" t="s">
         <v>162</v>
@@ -4152,48 +4188,80 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="A134" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D134" t="s">
+        <v>162</v>
+      </c>
+      <c r="E134" t="s">
+        <v>298</v>
+      </c>
+      <c r="G134" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="4"/>
+      <c r="A135" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D135" t="s">
+        <v>162</v>
+      </c>
+      <c r="E135" t="s">
+        <v>298</v>
+      </c>
+      <c r="G135" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>88</v>
+        <v>285</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C136" s="4"/>
+      <c r="C136" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="D136" t="s">
         <v>162</v>
       </c>
       <c r="E136" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G136" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C137" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="D137" t="s">
         <v>162</v>
       </c>
       <c r="E137" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G137" t="s">
         <v>364</v>
@@ -4201,17 +4269,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C138" s="4"/>
+      <c r="C138" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D138" t="s">
         <v>162</v>
       </c>
       <c r="E138" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G138" t="s">
         <v>364</v>
@@ -4219,61 +4289,39 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C139" s="4"/>
+      <c r="C139" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="D139" t="s">
         <v>162</v>
       </c>
       <c r="E139" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G139" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="A140" s="3"/>
+      <c r="B140" s="4"/>
       <c r="C140" s="4"/>
-      <c r="D140" t="s">
-        <v>162</v>
-      </c>
-      <c r="E140" t="s">
-        <v>299</v>
-      </c>
-      <c r="G140" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>163</v>
-      </c>
+      <c r="A141" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B141" s="8"/>
       <c r="C141" s="4"/>
-      <c r="D141" t="s">
-        <v>162</v>
-      </c>
-      <c r="E141" t="s">
-        <v>299</v>
-      </c>
-      <c r="G141" t="s">
-        <v>364</v>
-      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>163</v>
@@ -4291,7 +4339,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>163</v>
@@ -4307,16 +4355,14 @@
         <v>364</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>294</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C144" s="4"/>
       <c r="D144" t="s">
         <v>162</v>
       </c>
@@ -4329,14 +4375,12 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>290</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C145" s="4"/>
       <c r="D145" t="s">
         <v>162</v>
       </c>
@@ -4347,16 +4391,14 @@
         <v>364</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>296</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C146" s="4"/>
       <c r="D146" t="s">
         <v>162</v>
       </c>
@@ -4369,14 +4411,12 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>291</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C147" s="4"/>
       <c r="D147" t="s">
         <v>162</v>
       </c>
@@ -4388,156 +4428,152 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="4"/>
+      <c r="A148" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="C148" s="4"/>
       <c r="D148" t="s">
         <v>162</v>
       </c>
+      <c r="E148" t="s">
+        <v>299</v>
+      </c>
+      <c r="G148" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B149" s="8"/>
+      <c r="A149" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="C149" s="4"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B150" s="8"/>
-      <c r="C150" s="4"/>
+      <c r="D149" t="s">
+        <v>162</v>
+      </c>
+      <c r="E149" t="s">
+        <v>299</v>
+      </c>
+      <c r="G149" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D150" t="s">
+        <v>162</v>
+      </c>
+      <c r="E150" t="s">
+        <v>299</v>
+      </c>
+      <c r="G150" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>103</v>
+        <v>290</v>
       </c>
       <c r="D151" t="s">
         <v>162</v>
       </c>
       <c r="E151" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G151" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>303</v>
+        <v>98</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D152" t="s">
         <v>162</v>
       </c>
       <c r="E152" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G152" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>304</v>
+        <v>99</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D153" t="s">
         <v>162</v>
       </c>
       <c r="E153" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G153" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>305</v>
-      </c>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
       <c r="D154" t="s">
         <v>162</v>
       </c>
-      <c r="E154" t="s">
-        <v>300</v>
-      </c>
-      <c r="G154" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D155" t="s">
-        <v>162</v>
-      </c>
-      <c r="E155" t="s">
-        <v>300</v>
-      </c>
-      <c r="G155" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D156" t="s">
-        <v>162</v>
-      </c>
-      <c r="E156" t="s">
-        <v>300</v>
-      </c>
-      <c r="G156" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B155" s="8"/>
+      <c r="C155" s="4"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B156" s="8"/>
+      <c r="C156" s="4"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="D157" t="s">
         <v>162</v>
@@ -4551,13 +4587,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>109</v>
+        <v>301</v>
       </c>
       <c r="D158" t="s">
         <v>162</v>
@@ -4571,13 +4607,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>110</v>
+        <v>304</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>111</v>
+        <v>302</v>
       </c>
       <c r="D159" t="s">
         <v>162</v>
@@ -4589,15 +4625,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>113</v>
+      <c r="C160" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="D160" t="s">
         <v>162</v>
@@ -4611,13 +4647,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="D161" t="s">
         <v>162</v>
@@ -4629,9 +4665,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>163</v>
@@ -4651,13 +4687,13 @@
     </row>
     <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>308</v>
+        <v>107</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D163" t="s">
         <v>162</v>
@@ -4671,13 +4707,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>310</v>
+        <v>108</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>309</v>
+        <v>109</v>
       </c>
       <c r="D164" t="s">
         <v>162</v>
@@ -4689,15 +4725,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>312</v>
+        <v>110</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>311</v>
+        <v>111</v>
       </c>
       <c r="D165" t="s">
         <v>162</v>
@@ -4709,15 +4745,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>313</v>
+        <v>112</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>314</v>
+        <v>164</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="D166" t="s">
         <v>162</v>
@@ -4729,15 +4765,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="D167" t="s">
         <v>162</v>
@@ -4751,7 +4787,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>163</v>
@@ -4769,155 +4805,155 @@
         <v>363</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D169" t="s">
+        <v>162</v>
+      </c>
+      <c r="E169" t="s">
+        <v>300</v>
+      </c>
+      <c r="G169" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D170" t="s">
+        <v>162</v>
+      </c>
+      <c r="E170" t="s">
+        <v>300</v>
+      </c>
+      <c r="G170" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D171" t="s">
+        <v>162</v>
+      </c>
+      <c r="E171" t="s">
+        <v>300</v>
+      </c>
+      <c r="G171" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D172" t="s">
+        <v>162</v>
+      </c>
+      <c r="E172" t="s">
+        <v>300</v>
+      </c>
+      <c r="G172" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D173" t="s">
+        <v>162</v>
+      </c>
+      <c r="E173" t="s">
+        <v>300</v>
+      </c>
+      <c r="G173" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>162</v>
+      </c>
+      <c r="E174" t="s">
+        <v>300</v>
+      </c>
+      <c r="G174" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B169" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C169" s="4" t="s">
+      <c r="B175" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D169" t="s">
-        <v>162</v>
-      </c>
-      <c r="E169" t="s">
-        <v>300</v>
-      </c>
-      <c r="G169" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+      <c r="D175" t="s">
+        <v>162</v>
+      </c>
+      <c r="E175" t="s">
+        <v>300</v>
+      </c>
+      <c r="G175" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C170" s="4" t="s">
+      <c r="B176" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="D170" t="s">
-        <v>162</v>
-      </c>
-      <c r="E170" t="s">
-        <v>300</v>
-      </c>
-      <c r="G170" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D171" t="s">
-        <v>162</v>
-      </c>
-      <c r="E171" t="s">
-        <v>300</v>
-      </c>
-      <c r="G171" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D172" t="s">
-        <v>162</v>
-      </c>
-      <c r="E172" t="s">
-        <v>300</v>
-      </c>
-      <c r="G172" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D173" t="s">
-        <v>162</v>
-      </c>
-      <c r="E173" t="s">
-        <v>300</v>
-      </c>
-      <c r="G173" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D174" t="s">
-        <v>162</v>
-      </c>
-      <c r="E174" t="s">
-        <v>300</v>
-      </c>
-      <c r="G174" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D175" t="s">
-        <v>162</v>
-      </c>
-      <c r="E175" t="s">
-        <v>300</v>
-      </c>
-      <c r="G175" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D176" t="s">
         <v>162</v>
@@ -4931,13 +4967,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>13</v>
+        <v>318</v>
       </c>
       <c r="D177" t="s">
         <v>162</v>
@@ -4949,15 +4985,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D178" t="s">
         <v>162</v>
@@ -4971,13 +5007,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D179" t="s">
         <v>162</v>
@@ -4989,15 +5025,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>330</v>
+        <v>121</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D180" t="s">
         <v>162</v>
@@ -5011,13 +5047,13 @@
     </row>
     <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>331</v>
+        <v>13</v>
       </c>
       <c r="D181" t="s">
         <v>162</v>
@@ -5031,13 +5067,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>333</v>
+        <v>123</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>332</v>
+        <v>13</v>
       </c>
       <c r="D182" t="s">
         <v>162</v>
@@ -5051,13 +5087,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>335</v>
+        <v>124</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="D183" t="s">
         <v>162</v>
@@ -5071,13 +5107,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D184" t="s">
         <v>162</v>
@@ -5091,13 +5127,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>127</v>
+        <v>328</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>13</v>
+        <v>327</v>
       </c>
       <c r="D185" t="s">
         <v>162</v>
@@ -5111,13 +5147,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>128</v>
+        <v>330</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="D186" t="s">
         <v>162</v>
@@ -5129,15 +5165,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>13</v>
+        <v>331</v>
       </c>
       <c r="D187" t="s">
         <v>162</v>
@@ -5151,13 +5187,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>130</v>
+        <v>333</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>13</v>
+        <v>332</v>
       </c>
       <c r="D188" t="s">
         <v>162</v>
@@ -5171,13 +5207,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>13</v>
+        <v>334</v>
       </c>
       <c r="D189" t="s">
         <v>162</v>
@@ -5191,13 +5227,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>13</v>
+        <v>336</v>
       </c>
       <c r="D190" t="s">
         <v>162</v>
@@ -5211,7 +5247,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>163</v>
@@ -5231,13 +5267,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>338</v>
+        <v>128</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="D192" t="s">
         <v>162</v>
@@ -5251,13 +5287,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>339</v>
+        <v>13</v>
       </c>
       <c r="D193" t="s">
         <v>162</v>
@@ -5271,13 +5307,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>341</v>
+        <v>13</v>
       </c>
       <c r="D194" t="s">
         <v>162</v>
@@ -5291,7 +5327,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>163</v>
@@ -5311,7 +5347,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>163</v>
@@ -5331,7 +5367,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>163</v>
@@ -5349,15 +5385,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D198" t="s">
         <v>162</v>
@@ -5371,13 +5407,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D199" t="s">
         <v>162</v>
@@ -5389,15 +5425,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D200" t="s">
         <v>162</v>
@@ -5409,15 +5445,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>362</v>
+        <v>163</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D201" t="s">
         <v>162</v>
@@ -5431,13 +5467,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>348</v>
+        <v>136</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>347</v>
+      <c r="C202" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D202" t="s">
         <v>162</v>
@@ -5451,13 +5487,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>349</v>
+      <c r="C203" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D203" t="s">
         <v>162</v>
@@ -5469,15 +5505,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>140</v>
+        <v>343</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D204" t="s">
         <v>162</v>
@@ -5491,13 +5527,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>141</v>
+        <v>345</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>163</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>13</v>
+        <v>344</v>
       </c>
       <c r="D205" t="s">
         <v>162</v>
@@ -5511,13 +5547,13 @@
     </row>
     <row r="206" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>143</v>
+      <c r="C206" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="D206" t="s">
         <v>162</v>
@@ -5529,15 +5565,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>13</v>
+        <v>164</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="D207" t="s">
         <v>162</v>
@@ -5549,15 +5585,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>146</v>
+        <v>348</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>347</v>
       </c>
       <c r="D208" t="s">
         <v>162</v>
@@ -5569,15 +5605,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="D209" t="s">
         <v>162</v>
@@ -5591,13 +5627,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>354</v>
+        <v>140</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="D210" t="s">
         <v>162</v>
@@ -5611,13 +5647,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>356</v>
+        <v>141</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D211" t="s">
         <v>162</v>
@@ -5631,13 +5667,13 @@
     </row>
     <row r="212" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>358</v>
+      <c r="C212" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="D212" t="s">
         <v>162</v>
@@ -5651,7 +5687,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>163</v>
@@ -5669,15 +5705,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>13</v>
+        <v>145</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="D214" t="s">
         <v>162</v>
@@ -5689,15 +5725,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>13</v>
+        <v>353</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="D215" t="s">
         <v>162</v>
@@ -5711,13 +5747,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>13</v>
+        <v>355</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="D216" t="s">
         <v>162</v>
@@ -5729,15 +5765,15 @@
         <v>363</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>153</v>
+        <v>357</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="D217" t="s">
         <v>162</v>
@@ -5751,114 +5787,234 @@
     </row>
     <row r="218" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D218" t="s">
+        <v>162</v>
+      </c>
+      <c r="E218" t="s">
+        <v>300</v>
+      </c>
+      <c r="G218" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" t="s">
+        <v>162</v>
+      </c>
+      <c r="E219" t="s">
+        <v>300</v>
+      </c>
+      <c r="G219" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" t="s">
+        <v>162</v>
+      </c>
+      <c r="E220" t="s">
+        <v>300</v>
+      </c>
+      <c r="G220" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" t="s">
+        <v>162</v>
+      </c>
+      <c r="E221" t="s">
+        <v>300</v>
+      </c>
+      <c r="G221" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" t="s">
+        <v>162</v>
+      </c>
+      <c r="E222" t="s">
+        <v>300</v>
+      </c>
+      <c r="G222" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D223" t="s">
+        <v>162</v>
+      </c>
+      <c r="E223" t="s">
+        <v>300</v>
+      </c>
+      <c r="G223" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B218" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C218" s="4" t="s">
+      <c r="B224" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C224" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D218" t="s">
-        <v>162</v>
-      </c>
-      <c r="E218" t="s">
-        <v>300</v>
-      </c>
-      <c r="G218" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+      <c r="D224" t="s">
+        <v>162</v>
+      </c>
+      <c r="E224" t="s">
+        <v>300</v>
+      </c>
+      <c r="G224" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B219" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C219" s="4"/>
-      <c r="D219" t="s">
-        <v>162</v>
-      </c>
-      <c r="E219" t="s">
-        <v>300</v>
-      </c>
-      <c r="G219" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D220" t="s">
-        <v>162</v>
-      </c>
-      <c r="E220" t="s">
-        <v>300</v>
-      </c>
-      <c r="G220" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="345" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D221" t="s">
-        <v>162</v>
-      </c>
-      <c r="E221" t="s">
-        <v>300</v>
-      </c>
-      <c r="G221" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="2"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="3"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="D224" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B225" s="4"/>
+      <c r="B225" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="C225" s="4"/>
       <c r="D225" t="s">
         <v>162</v>
       </c>
+      <c r="E225" t="s">
+        <v>300</v>
+      </c>
+      <c r="G225" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D226" t="s">
+        <v>162</v>
+      </c>
+      <c r="E226" t="s">
+        <v>300</v>
+      </c>
+      <c r="G226" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="345" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D227" t="s">
+        <v>162</v>
+      </c>
+      <c r="E227" t="s">
+        <v>300</v>
+      </c>
+      <c r="G227" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="3"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="2"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="3"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" t="s">
+        <v>162</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G225" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="G1:G231" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
